--- a/data/uvflower_final.xlsx
+++ b/data/uvflower_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>param1</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>ebc_avg</t>
+  </si>
+  <si>
+    <t>ebc_sd</t>
+  </si>
+  <si>
+    <t>ebc_max</t>
+  </si>
+  <si>
+    <t>ebc_min</t>
+  </si>
+  <si>
+    <t>hub_repulsion_mod</t>
   </si>
   <si>
     <t>1_1_1</t>
@@ -773,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,8 +855,23 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -885,10 +915,25 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -932,10 +977,25 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -979,10 +1039,25 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>27</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1026,10 +1101,25 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>28</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1073,10 +1163,25 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1120,10 +1225,25 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1167,10 +1287,25 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>31</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1214,10 +1349,25 @@
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>32</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1261,10 +1411,25 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>33</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1311,10 +1476,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>34</v>
+      </c>
+      <c r="V11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1367,10 +1547,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="U12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V12">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="W12">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="X12">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Y12">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1432,10 +1627,25 @@
         <v>0.1015873015873016</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>36</v>
+      </c>
+      <c r="V13">
+        <v>0.07195767195767196</v>
+      </c>
+      <c r="W13">
+        <v>0.0242091013067521</v>
+      </c>
+      <c r="X13">
+        <v>0.1015873015873016</v>
+      </c>
+      <c r="Y13">
+        <v>0.03492063492063492</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1497,10 +1707,25 @@
         <v>0.08175571041424698</v>
       </c>
       <c r="U14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>37</v>
+      </c>
+      <c r="V14">
+        <v>0.03054157525702241</v>
+      </c>
+      <c r="W14">
+        <v>0.02154198929038398</v>
+      </c>
+      <c r="X14">
+        <v>0.1042586140147115</v>
+      </c>
+      <c r="Y14">
+        <v>0.004258614014711575</v>
+      </c>
+      <c r="Z14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1562,10 +1787,25 @@
         <v>0.06155453918205959</v>
       </c>
       <c r="U15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>38</v>
+      </c>
+      <c r="V15">
+        <v>0.01220088096448663</v>
+      </c>
+      <c r="W15">
+        <v>0.01522119537994869</v>
+      </c>
+      <c r="X15">
+        <v>0.1095898148677037</v>
+      </c>
+      <c r="Y15">
+        <v>0.0004886934115242791</v>
+      </c>
+      <c r="Z15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1627,10 +1867,25 @@
         <v>0.03390392409906164</v>
       </c>
       <c r="U16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>39</v>
+      </c>
+      <c r="V16">
+        <v>0.004705324965490814</v>
+      </c>
+      <c r="W16">
+        <v>0.009715229927782445</v>
+      </c>
+      <c r="X16">
+        <v>0.1128503014647188</v>
+      </c>
+      <c r="Y16">
+        <v>5.489432841779573e-05</v>
+      </c>
+      <c r="Z16">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1692,10 +1947,25 @@
         <v>0.01589836386616444</v>
       </c>
       <c r="U17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>40</v>
+      </c>
+      <c r="V17">
+        <v>0.001775632696625731</v>
+      </c>
+      <c r="W17">
+        <v>0.005894635066046366</v>
+      </c>
+      <c r="X17">
+        <v>0.114432642586837</v>
+      </c>
+      <c r="Y17">
+        <v>6.121670993575027e-06</v>
+      </c>
+      <c r="Z17">
+        <v>1.975609756097561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1757,10 +2027,25 @@
         <v>0.006785569411369481</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>41</v>
+      </c>
+      <c r="V18">
+        <v>0.0006601433593009105</v>
+      </c>
+      <c r="W18">
+        <v>0.003485788838832198</v>
+      </c>
+      <c r="X18">
+        <v>0.1151269713879565</v>
+      </c>
+      <c r="Y18">
+        <v>6.810149078497059e-07</v>
+      </c>
+      <c r="Z18">
+        <v>1.991803278688525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1807,10 +2092,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>42</v>
+      </c>
+      <c r="V19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1872,10 +2172,25 @@
         <v>0.1974747474747475</v>
       </c>
       <c r="U20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>43</v>
+      </c>
+      <c r="V20">
+        <v>0.143939393939394</v>
+      </c>
+      <c r="W20">
+        <v>0.04530990830228559</v>
+      </c>
+      <c r="X20">
+        <v>0.1974747474747475</v>
+      </c>
+      <c r="Y20">
+        <v>0.07525252525252525</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1937,10 +2252,25 @@
         <v>0.1635074627040801</v>
       </c>
       <c r="U21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>44</v>
+      </c>
+      <c r="V21">
+        <v>0.05325052854122621</v>
+      </c>
+      <c r="W21">
+        <v>0.04129608645888132</v>
+      </c>
+      <c r="X21">
+        <v>0.1792917911311147</v>
+      </c>
+      <c r="Y21">
+        <v>0.01444618336795927</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2002,10 +2332,25 @@
         <v>0.1093209172508022</v>
       </c>
       <c r="U22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>45</v>
+      </c>
+      <c r="V22">
+        <v>0.01744823541411669</v>
+      </c>
+      <c r="W22">
+        <v>0.02615054668504609</v>
+      </c>
+      <c r="X22">
+        <v>0.1789946430118619</v>
+      </c>
+      <c r="Y22">
+        <v>0.002783895171197948</v>
+      </c>
+      <c r="Z22">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2067,10 +2412,25 @@
         <v>0.04701276776506622</v>
       </c>
       <c r="U23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>46</v>
+      </c>
+      <c r="V23">
+        <v>0.005360545741183116</v>
+      </c>
+      <c r="W23">
+        <v>0.01435790701071249</v>
+      </c>
+      <c r="X23">
+        <v>0.180022160156244</v>
+      </c>
+      <c r="Y23">
+        <v>0.0005591265675558585</v>
+      </c>
+      <c r="Z23">
+        <v>1.454545454545455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2132,10 +2492,25 @@
         <v>0.01686394563831021</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>47</v>
+      </c>
+      <c r="V24">
+        <v>0.001586104851508328</v>
+      </c>
+      <c r="W24">
+        <v>0.007444222790847357</v>
+      </c>
+      <c r="X24">
+        <v>0.180565039915704</v>
+      </c>
+      <c r="Y24">
+        <v>0.0001166457494774797</v>
+      </c>
+      <c r="Z24">
+        <v>1.488372093023256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2182,10 +2557,25 @@
         <v>0.3</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>48</v>
+      </c>
+      <c r="V25">
+        <v>0.3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0.3</v>
+      </c>
+      <c r="Y25">
+        <v>0.3</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2247,10 +2637,25 @@
         <v>0.2052631578947368</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>49</v>
+      </c>
+      <c r="V26">
+        <v>0.1168421052631579</v>
+      </c>
+      <c r="W26">
+        <v>0.05774502173024129</v>
+      </c>
+      <c r="X26">
+        <v>0.2052631578947368</v>
+      </c>
+      <c r="Y26">
+        <v>0.05526315789473684</v>
+      </c>
+      <c r="Z26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2312,10 +2717,25 @@
         <v>0.1607269503546099</v>
       </c>
       <c r="U27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>50</v>
+      </c>
+      <c r="V27">
+        <v>0.03558342665173572</v>
+      </c>
+      <c r="W27">
+        <v>0.04098160929085459</v>
+      </c>
+      <c r="X27">
+        <v>0.1964912280701755</v>
+      </c>
+      <c r="Y27">
+        <v>0.002351623740201568</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2377,10 +2797,25 @@
         <v>0.0768231239491957</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>51</v>
+      </c>
+      <c r="V28">
+        <v>0.009479798575511499</v>
+      </c>
+      <c r="W28">
+        <v>0.0213953795826408</v>
+      </c>
+      <c r="X28">
+        <v>0.1964448275340622</v>
+      </c>
+      <c r="Y28">
+        <v>9.526833915528739e-05</v>
+      </c>
+      <c r="Z28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2442,10 +2877,25 @@
         <v>0.02533895153755215</v>
       </c>
       <c r="U29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>52</v>
+      </c>
+      <c r="V29">
+        <v>0.002360335038605122</v>
+      </c>
+      <c r="W29">
+        <v>0.01008032616019564</v>
+      </c>
+      <c r="X29">
+        <v>0.1967619466919773</v>
+      </c>
+      <c r="Y29">
+        <v>3.820488003667669e-06</v>
+      </c>
+      <c r="Z29">
+        <v>1.315789473684211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2501,10 +2951,25 @@
         <v>0.3</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>53</v>
+      </c>
+      <c r="V30">
+        <v>0.3</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0.3</v>
+      </c>
+      <c r="Y30">
+        <v>0.3</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2566,10 +3031,25 @@
         <v>0.2245977011494253</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>54</v>
+      </c>
+      <c r="V31">
+        <v>0.1051724137931034</v>
+      </c>
+      <c r="W31">
+        <v>0.06272562693952224</v>
+      </c>
+      <c r="X31">
+        <v>0.2245977011494253</v>
+      </c>
+      <c r="Y31">
+        <v>0.03402298850574712</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2631,10 +3111,25 @@
         <v>0.1577413155946143</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>55</v>
+      </c>
+      <c r="V32">
+        <v>0.02714935884658826</v>
+      </c>
+      <c r="W32">
+        <v>0.03875966507795013</v>
+      </c>
+      <c r="X32">
+        <v>0.2181003974506066</v>
+      </c>
+      <c r="Y32">
+        <v>0.003838656120896501</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2696,10 +3191,25 @@
         <v>0.05744284805994659</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>56</v>
+      </c>
+      <c r="V33">
+        <v>0.006088974172694443</v>
+      </c>
+      <c r="W33">
+        <v>0.01788797327048687</v>
+      </c>
+      <c r="X33">
+        <v>0.2178590774898313</v>
+      </c>
+      <c r="Y33">
+        <v>0.0004748632982731906</v>
+      </c>
+      <c r="Z33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2761,10 +3271,25 @@
         <v>0.01486478923351091</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>57</v>
+      </c>
+      <c r="V34">
+        <v>0.001272903845183482</v>
+      </c>
+      <c r="W34">
+        <v>0.007567007987988963</v>
+      </c>
+      <c r="X34">
+        <v>0.2179568372597481</v>
+      </c>
+      <c r="Y34">
+        <v>6.298582961790083e-05</v>
+      </c>
+      <c r="Z34">
+        <v>1.241379310344828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2820,10 +3345,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>58</v>
+      </c>
+      <c r="V35">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y35">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2885,10 +3425,25 @@
         <v>0.2264808362369338</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>59</v>
+      </c>
+      <c r="V36">
+        <v>0.09059233449477352</v>
+      </c>
+      <c r="W36">
+        <v>0.06407545174233853</v>
+      </c>
+      <c r="X36">
+        <v>0.2264808362369338</v>
+      </c>
+      <c r="Y36">
+        <v>0.0272938443670151</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2950,10 +3505,25 @@
         <v>0.1395036285922037</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>60</v>
+      </c>
+      <c r="V37">
+        <v>0.02027638861884755</v>
+      </c>
+      <c r="W37">
+        <v>0.03474477334006542</v>
+      </c>
+      <c r="X37">
+        <v>0.2221193440705637</v>
+      </c>
+      <c r="Y37">
+        <v>0.0005725981335737433</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3015,10 +3585,25 @@
         <v>0.04061895371896108</v>
       </c>
       <c r="U38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>61</v>
+      </c>
+      <c r="V38">
+        <v>0.003924775597248398</v>
+      </c>
+      <c r="W38">
+        <v>0.01445841195804213</v>
+      </c>
+      <c r="X38">
+        <v>0.2219349366275902</v>
+      </c>
+      <c r="Y38">
+        <v>1.173239554049149e-05</v>
+      </c>
+      <c r="Z38">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3074,10 +3659,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>62</v>
+      </c>
+      <c r="V39">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y39">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3139,10 +3739,25 @@
         <v>0.2353030303030304</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>63</v>
+      </c>
+      <c r="V40">
+        <v>0.08246753246753247</v>
+      </c>
+      <c r="W40">
+        <v>0.06432104480920459</v>
+      </c>
+      <c r="X40">
+        <v>0.2353030303030304</v>
+      </c>
+      <c r="Y40">
+        <v>0.01924242424242424</v>
+      </c>
+      <c r="Z40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3204,10 +3819,25 @@
         <v>0.1255879543487974</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="V41">
+        <v>0.01628572168150756</v>
+      </c>
+      <c r="W41">
+        <v>0.03180844062031566</v>
+      </c>
+      <c r="X41">
+        <v>0.2318048746771053</v>
+      </c>
+      <c r="Y41">
+        <v>0.001534670432993057</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3269,10 +3899,25 @@
         <v>0.03055885483868659</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>65</v>
+      </c>
+      <c r="V42">
+        <v>0.002771895126705589</v>
+      </c>
+      <c r="W42">
+        <v>0.01219390728950223</v>
+      </c>
+      <c r="X42">
+        <v>0.2316301560615832</v>
+      </c>
+      <c r="Y42">
+        <v>0.0001412354689701181</v>
+      </c>
+      <c r="Z42">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3328,10 +3973,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>66</v>
+      </c>
+      <c r="V43">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y43">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3393,10 +4053,25 @@
         <v>0.2355242566510172</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>67</v>
+      </c>
+      <c r="V44">
+        <v>0.07346548426360633</v>
+      </c>
+      <c r="W44">
+        <v>0.06330382978626321</v>
+      </c>
+      <c r="X44">
+        <v>0.2355242566510172</v>
+      </c>
+      <c r="Y44">
+        <v>0.01623630672926448</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3458,10 +4133,25 @@
         <v>0.1093401874887522</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>68</v>
+      </c>
+      <c r="V45">
+        <v>0.01297791954889072</v>
+      </c>
+      <c r="W45">
+        <v>0.02862949314897357</v>
+      </c>
+      <c r="X45">
+        <v>0.2328612333469062</v>
+      </c>
+      <c r="Y45">
+        <v>0.0002035900530315295</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3523,10 +4213,25 @@
         <v>0.02297744260395356</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>69</v>
+      </c>
+      <c r="V46">
+        <v>0.001970697013588044</v>
+      </c>
+      <c r="W46">
+        <v>0.01021025125331902</v>
+      </c>
+      <c r="X46">
+        <v>0.2327244458754649</v>
+      </c>
+      <c r="Y46">
+        <v>2.517835527824175e-06</v>
+      </c>
+      <c r="Z46">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3582,10 +4287,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>70</v>
+      </c>
+      <c r="V47">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y47">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3647,10 +4367,25 @@
         <v>0.2404577611319184</v>
       </c>
       <c r="U48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>71</v>
+      </c>
+      <c r="V48">
+        <v>0.06772784019975031</v>
+      </c>
+      <c r="W48">
+        <v>0.06245296282246335</v>
+      </c>
+      <c r="X48">
+        <v>0.2404577611319185</v>
+      </c>
+      <c r="Y48">
+        <v>0.0123512276321265</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3712,10 +4447,25 @@
         <v>0.09853029962989607</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>72</v>
+      </c>
+      <c r="V49">
+        <v>0.0108217161057115</v>
+      </c>
+      <c r="W49">
+        <v>0.02631052359311276</v>
+      </c>
+      <c r="X49">
+        <v>0.2382297169582464</v>
+      </c>
+      <c r="Y49">
+        <v>0.0007608464526349807</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3777,10 +4527,25 @@
         <v>0.01791456867407139</v>
       </c>
       <c r="U50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>73</v>
+      </c>
+      <c r="V50">
+        <v>0.001483162035558923</v>
+      </c>
+      <c r="W50">
+        <v>0.008821565423990669</v>
+      </c>
+      <c r="X50">
+        <v>0.2381132527954909</v>
+      </c>
+      <c r="Y50">
+        <v>5.59254754913895e-05</v>
+      </c>
+      <c r="Z50">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3827,10 +4592,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>74</v>
+      </c>
+      <c r="V51">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y51">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3892,10 +4672,25 @@
         <v>0.143939393939394</v>
       </c>
       <c r="U52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>75</v>
+      </c>
+      <c r="V52">
+        <v>0.143939393939394</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0.143939393939394</v>
+      </c>
+      <c r="Y52">
+        <v>0.143939393939394</v>
+      </c>
+      <c r="Z52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3957,10 +4752,25 @@
         <v>0.07108879492600423</v>
       </c>
       <c r="U53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>76</v>
+      </c>
+      <c r="V53">
+        <v>0.06791754756871035</v>
+      </c>
+      <c r="W53">
+        <v>0.003196316896483952</v>
+      </c>
+      <c r="X53">
+        <v>0.07108879492600423</v>
+      </c>
+      <c r="Y53">
+        <v>0.06474630021141649</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4022,10 +4832,25 @@
         <v>0.03564021487828097</v>
       </c>
       <c r="U54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>77</v>
+      </c>
+      <c r="V54">
+        <v>0.03315823473412213</v>
+      </c>
+      <c r="W54">
+        <v>0.001483744084823353</v>
+      </c>
+      <c r="X54">
+        <v>0.03564021487828097</v>
+      </c>
+      <c r="Y54">
+        <v>0.03190024479804161</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4087,10 +4912,25 @@
         <v>0.01784594325002354</v>
       </c>
       <c r="U55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>78</v>
+      </c>
+      <c r="V55">
+        <v>0.01643639815742381</v>
+      </c>
+      <c r="W55">
+        <v>0.0006631665028944633</v>
+      </c>
+      <c r="X55">
+        <v>0.01784594325002354</v>
+      </c>
+      <c r="Y55">
+        <v>0.0158188525853433</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4152,10 +4992,25 @@
         <v>0.008927052836233624</v>
       </c>
       <c r="U56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>79</v>
+      </c>
+      <c r="V56">
+        <v>0.008194820878766808</v>
+      </c>
+      <c r="W56">
+        <v>0.0003128949337288027</v>
+      </c>
+      <c r="X56">
+        <v>0.008927052836233624</v>
+      </c>
+      <c r="Y56">
+        <v>0.007900728539468485</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4202,10 +5057,25 @@
         <v>0.3</v>
       </c>
       <c r="U57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>80</v>
+      </c>
+      <c r="V57">
+        <v>0.3</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0.3</v>
+      </c>
+      <c r="Y57">
+        <v>0.3</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4267,10 +5137,25 @@
         <v>0.1789473684210526</v>
       </c>
       <c r="U58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>81</v>
+      </c>
+      <c r="V58">
+        <v>0.1263157894736842</v>
+      </c>
+      <c r="W58">
+        <v>0.04403473823863555</v>
+      </c>
+      <c r="X58">
+        <v>0.1789473684210526</v>
+      </c>
+      <c r="Y58">
+        <v>0.08421052631578947</v>
+      </c>
+      <c r="Z58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4332,10 +5217,25 @@
         <v>0.1662187383351997</v>
       </c>
       <c r="U59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>82</v>
+      </c>
+      <c r="V59">
+        <v>0.05300783874580068</v>
+      </c>
+      <c r="W59">
+        <v>0.05254595025697222</v>
+      </c>
+      <c r="X59">
+        <v>0.1662187383351998</v>
+      </c>
+      <c r="Y59">
+        <v>0.01075027995520717</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4397,10 +5297,25 @@
         <v>0.1654975743003688</v>
       </c>
       <c r="U60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>83</v>
+      </c>
+      <c r="V60">
+        <v>0.02166717778886721</v>
+      </c>
+      <c r="W60">
+        <v>0.04074961529697198</v>
+      </c>
+      <c r="X60">
+        <v>0.1666633398357756</v>
+      </c>
+      <c r="Y60">
+        <v>0.0004355124075670281</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4462,10 +5377,25 @@
         <v>0.1148106284798501</v>
       </c>
       <c r="U61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>84</v>
+      </c>
+      <c r="V61">
+        <v>0.00875238609487909</v>
+      </c>
+      <c r="W61">
+        <v>0.02784668061228922</v>
+      </c>
+      <c r="X61">
+        <v>0.167409748118085</v>
+      </c>
+      <c r="Y61">
+        <v>1.746508801676649e-05</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4521,10 +5451,25 @@
         <v>0.3</v>
       </c>
       <c r="U62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>85</v>
+      </c>
+      <c r="V62">
+        <v>0.3</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0.3</v>
+      </c>
+      <c r="Y62">
+        <v>0.3</v>
+      </c>
+      <c r="Z62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4586,10 +5531,25 @@
         <v>0.2000766283524904</v>
       </c>
       <c r="U63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>86</v>
+      </c>
+      <c r="V63">
+        <v>0.118007662835249</v>
+      </c>
+      <c r="W63">
+        <v>0.06035138182145431</v>
+      </c>
+      <c r="X63">
+        <v>0.2000766283524904</v>
+      </c>
+      <c r="Y63">
+        <v>0.06084291187739463</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4651,10 +5611,25 @@
         <v>0.1905277159961234</v>
       </c>
       <c r="U64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>87</v>
+      </c>
+      <c r="V64">
+        <v>0.04265866424526979</v>
+      </c>
+      <c r="W64">
+        <v>0.05551900021519973</v>
+      </c>
+      <c r="X64">
+        <v>0.1905277159961234</v>
+      </c>
+      <c r="Y64">
+        <v>0.005889963394448148</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4716,10 +5691,25 @@
         <v>0.1574078245426395</v>
       </c>
       <c r="U65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>88</v>
+      </c>
+      <c r="V65">
+        <v>0.01473297869639027</v>
+      </c>
+      <c r="W65">
+        <v>0.03707482454747692</v>
+      </c>
+      <c r="X65">
+        <v>0.190504823042017</v>
+      </c>
+      <c r="Y65">
+        <v>0.0007438990423275581</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4781,10 +5771,25 @@
         <v>0.07711364637997614</v>
       </c>
       <c r="U66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>89</v>
+      </c>
+      <c r="V66">
+        <v>0.004993164513366095</v>
+      </c>
+      <c r="W66">
+        <v>0.02247406617220354</v>
+      </c>
+      <c r="X66">
+        <v>0.190788303952638</v>
+      </c>
+      <c r="Y66">
+        <v>9.25649439031242e-05</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4840,10 +5845,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>90</v>
+      </c>
+      <c r="V67">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y67">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4905,10 +5925,25 @@
         <v>0.2113821138211382</v>
       </c>
       <c r="U68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>91</v>
+      </c>
+      <c r="V68">
+        <v>0.1053592168574747</v>
+      </c>
+      <c r="W68">
+        <v>0.07002675310517432</v>
+      </c>
+      <c r="X68">
+        <v>0.2113821138211382</v>
+      </c>
+      <c r="Y68">
+        <v>0.0429732868757259</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4970,10 +6005,25 @@
         <v>0.2055798288147454</v>
       </c>
       <c r="U69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>92</v>
+      </c>
+      <c r="V69">
+        <v>0.0336497748145334</v>
+      </c>
+      <c r="W69">
+        <v>0.05441956509797054</v>
+      </c>
+      <c r="X69">
+        <v>0.2057657789365107</v>
+      </c>
+      <c r="Y69">
+        <v>0.000999000999000999</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5035,10 +6085,25 @@
         <v>0.1288618057020739</v>
       </c>
       <c r="U70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>93</v>
+      </c>
+      <c r="V70">
+        <v>0.01008857492131889</v>
+      </c>
+      <c r="W70">
+        <v>0.03240857227066731</v>
+      </c>
+      <c r="X70">
+        <v>0.2058039744696415</v>
+      </c>
+      <c r="Y70">
+        <v>2.046928583660218e-05</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5094,10 +6159,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>94</v>
+      </c>
+      <c r="V71">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y71">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5159,10 +6239,25 @@
         <v>0.2205844155844157</v>
       </c>
       <c r="U72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>95</v>
+      </c>
+      <c r="V72">
+        <v>0.09756493506493508</v>
+      </c>
+      <c r="W72">
+        <v>0.07369902518976139</v>
+      </c>
+      <c r="X72">
+        <v>0.2205844155844157</v>
+      </c>
+      <c r="Y72">
+        <v>0.03461038961038961</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5224,10 +6319,25 @@
         <v>0.2160624835787913</v>
       </c>
       <c r="U73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>96</v>
+      </c>
+      <c r="V73">
+        <v>0.02767718471733278</v>
+      </c>
+      <c r="W73">
+        <v>0.05157304426978326</v>
+      </c>
+      <c r="X73">
+        <v>0.216121540357666</v>
+      </c>
+      <c r="Y73">
+        <v>0.002249847952374352</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5289,10 +6399,25 @@
         <v>0.1026135545370378</v>
       </c>
       <c r="U74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>97</v>
+      </c>
+      <c r="V74">
+        <v>0.007309522435670763</v>
+      </c>
+      <c r="W74">
+        <v>0.0281758847777702</v>
+      </c>
+      <c r="X74">
+        <v>0.2160735098504354</v>
+      </c>
+      <c r="Y74">
+        <v>0.0002013344190695745</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5348,10 +6473,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="V75">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y75">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5413,10 +6553,25 @@
         <v>0.2257433489827856</v>
       </c>
       <c r="U76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>99</v>
+      </c>
+      <c r="V76">
+        <v>0.08854981742305686</v>
+      </c>
+      <c r="W76">
+        <v>0.07608291390727741</v>
+      </c>
+      <c r="X76">
+        <v>0.2257433489827856</v>
+      </c>
+      <c r="Y76">
+        <v>0.02621283255086072</v>
+      </c>
+      <c r="Z76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5478,10 +6633,25 @@
         <v>0.2143294606038401</v>
       </c>
       <c r="U77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>100</v>
+      </c>
+      <c r="V77">
+        <v>0.0226472811870254</v>
+      </c>
+      <c r="W77">
+        <v>0.04822221452508883</v>
+      </c>
+      <c r="X77">
+        <v>0.2225827973763865</v>
+      </c>
+      <c r="Y77">
+        <v>0.000358122261959076</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5543,10 +6713,25 @@
         <v>0.08002395015896885</v>
       </c>
       <c r="U78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>101</v>
+      </c>
+      <c r="V78">
+        <v>0.005348994625019668</v>
+      </c>
+      <c r="W78">
+        <v>0.02444030426923946</v>
+      </c>
+      <c r="X78">
+        <v>0.2225453747836623</v>
+      </c>
+      <c r="Y78">
+        <v>4.42896369954614e-06</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5602,10 +6787,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>102</v>
+      </c>
+      <c r="V79">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y79">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5667,10 +6867,25 @@
         <v>0.230803162713275</v>
       </c>
       <c r="U80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>103</v>
+      </c>
+      <c r="V80">
+        <v>0.0824469413233458</v>
+      </c>
+      <c r="W80">
+        <v>0.07656988674115286</v>
+      </c>
+      <c r="X80">
+        <v>0.230803162713275</v>
+      </c>
+      <c r="Y80">
+        <v>0.0222555139409072</v>
+      </c>
+      <c r="Z80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5732,10 +6947,25 @@
         <v>0.1929745660484358</v>
       </c>
       <c r="U81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>104</v>
+      </c>
+      <c r="V81">
+        <v>0.01914308464250957</v>
+      </c>
+      <c r="W81">
+        <v>0.04508865649568585</v>
+      </c>
+      <c r="X81">
+        <v>0.228183341334654</v>
+      </c>
+      <c r="Y81">
+        <v>0.001083903029783388</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5797,10 +7027,25 @@
         <v>0.06273222342324131</v>
       </c>
       <c r="U82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>105</v>
+      </c>
+      <c r="V82">
+        <v>0.004085055213525226</v>
+      </c>
+      <c r="W82">
+        <v>0.02145728305129505</v>
+      </c>
+      <c r="X82">
+        <v>0.2281309890634275</v>
+      </c>
+      <c r="Y82">
+        <v>7.834316335070704e-05</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5856,10 +7101,25 @@
         <v>0.3</v>
       </c>
       <c r="U83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>106</v>
+      </c>
+      <c r="V83">
+        <v>0.3</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0.3</v>
+      </c>
+      <c r="Y83">
+        <v>0.3</v>
+      </c>
+      <c r="Z83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5921,10 +7181,25 @@
         <v>0.1339080459770115</v>
       </c>
       <c r="U84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>107</v>
+      </c>
+      <c r="V84">
+        <v>0.1323754789272031</v>
+      </c>
+      <c r="W84">
+        <v>0.002198121580385092</v>
+      </c>
+      <c r="X84">
+        <v>0.1339080459770115</v>
+      </c>
+      <c r="Y84">
+        <v>0.1293103448275862</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5986,10 +7261,25 @@
         <v>0.06624975084711979</v>
       </c>
       <c r="U85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>108</v>
+      </c>
+      <c r="V85">
+        <v>0.06423438088277633</v>
+      </c>
+      <c r="W85">
+        <v>0.001199944448847384</v>
+      </c>
+      <c r="X85">
+        <v>0.06624975084711979</v>
+      </c>
+      <c r="Y85">
+        <v>0.06286127167630057</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6051,10 +7341,25 @@
         <v>0.03309264812719364</v>
       </c>
       <c r="U86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>109</v>
+      </c>
+      <c r="V86">
+        <v>0.0319112475528131</v>
+      </c>
+      <c r="W86">
+        <v>0.0005436498101514594</v>
+      </c>
+      <c r="X86">
+        <v>0.03309264812719364</v>
+      </c>
+      <c r="Y86">
+        <v>0.0312801350048216</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6116,10 +7421,25 @@
         <v>0.01651178181645509</v>
       </c>
       <c r="U87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>110</v>
+      </c>
+      <c r="V87">
+        <v>0.01593576720358333</v>
+      </c>
+      <c r="W87">
+        <v>0.0002631306065404469</v>
+      </c>
+      <c r="X87">
+        <v>0.01654443735615997</v>
+      </c>
+      <c r="Y87">
+        <v>0.01562751165407491</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6175,10 +7495,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>111</v>
+      </c>
+      <c r="V88">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y88">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6240,10 +7575,25 @@
         <v>0.1951219512195122</v>
       </c>
       <c r="U89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>112</v>
+      </c>
+      <c r="V89">
+        <v>0.1207897793263647</v>
+      </c>
+      <c r="W89">
+        <v>0.06439166391360766</v>
+      </c>
+      <c r="X89">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="Y89">
+        <v>0.06329849012775841</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6305,10 +7655,25 @@
         <v>0.188688290742206</v>
       </c>
       <c r="U90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>113</v>
+      </c>
+      <c r="V90">
+        <v>0.0522240328113897</v>
+      </c>
+      <c r="W90">
+        <v>0.0663764300094726</v>
+      </c>
+      <c r="X90">
+        <v>0.1889127133029572</v>
+      </c>
+      <c r="Y90">
+        <v>0.005254907693932084</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6370,10 +7735,25 @@
         <v>0.1884415039059028</v>
       </c>
       <c r="U91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>114</v>
+      </c>
+      <c r="V91">
+        <v>0.02245671186710871</v>
+      </c>
+      <c r="W91">
+        <v>0.05030197918331989</v>
+      </c>
+      <c r="X91">
+        <v>0.1892194595343021</v>
+      </c>
+      <c r="Y91">
+        <v>0.0001076717718396879</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6429,10 +7809,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>115</v>
+      </c>
+      <c r="V92">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y92">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6494,10 +7889,25 @@
         <v>0.2071645021645022</v>
       </c>
       <c r="U93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>116</v>
+      </c>
+      <c r="V93">
+        <v>0.112987012987013</v>
+      </c>
+      <c r="W93">
+        <v>0.0735262553322204</v>
+      </c>
+      <c r="X93">
+        <v>0.2071645021645022</v>
+      </c>
+      <c r="Y93">
+        <v>0.04867965367965368</v>
+      </c>
+      <c r="Z93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6559,10 +7969,25 @@
         <v>0.2017983102257797</v>
       </c>
       <c r="U94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="V94">
+        <v>0.04330865603644649</v>
+      </c>
+      <c r="W94">
+        <v>0.06585312855676112</v>
+      </c>
+      <c r="X94">
+        <v>0.201941733831618</v>
+      </c>
+      <c r="Y94">
+        <v>0.002497927511387841</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6624,10 +8049,25 @@
         <v>0.2014083775748619</v>
       </c>
       <c r="U95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>118</v>
+      </c>
+      <c r="V95">
+        <v>0.0163556549656174</v>
+      </c>
+      <c r="W95">
+        <v>0.04525972728473784</v>
+      </c>
+      <c r="X95">
+        <v>0.2020230168799064</v>
+      </c>
+      <c r="Y95">
+        <v>0.0002196473038209583</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6683,10 +8123,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+        <v>119</v>
+      </c>
+      <c r="V96">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y96">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6748,10 +8203,25 @@
         <v>0.2155712050078247</v>
       </c>
       <c r="U97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>120</v>
+      </c>
+      <c r="V97">
+        <v>0.1038949747869936</v>
+      </c>
+      <c r="W97">
+        <v>0.07972269583428139</v>
+      </c>
+      <c r="X97">
+        <v>0.2155712050078247</v>
+      </c>
+      <c r="Y97">
+        <v>0.03853677621283255</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6813,10 +8283,25 @@
         <v>0.211950757629549</v>
       </c>
       <c r="U98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+        <v>121</v>
+      </c>
+      <c r="V98">
+        <v>0.03600536874510216</v>
+      </c>
+      <c r="W98">
+        <v>0.06381734760774391</v>
+      </c>
+      <c r="X98">
+        <v>0.2121302060592978</v>
+      </c>
+      <c r="Y98">
+        <v>0.0005126544708866224</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6878,10 +8363,25 @@
         <v>0.1702195803352637</v>
       </c>
       <c r="U99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>122</v>
+      </c>
+      <c r="V99">
+        <v>0.01214451058251216</v>
+      </c>
+      <c r="W99">
+        <v>0.04043807280792096</v>
+      </c>
+      <c r="X99">
+        <v>0.2121985774209046</v>
+      </c>
+      <c r="Y99">
+        <v>6.340091871268105e-06</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6937,10 +8437,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+        <v>123</v>
+      </c>
+      <c r="V100">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y100">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7002,10 +8517,25 @@
         <v>0.2216479400749065</v>
       </c>
       <c r="U101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+        <v>124</v>
+      </c>
+      <c r="V101">
+        <v>0.09726591760299627</v>
+      </c>
+      <c r="W101">
+        <v>0.08244159329751298</v>
+      </c>
+      <c r="X101">
+        <v>0.2216479400749065</v>
+      </c>
+      <c r="Y101">
+        <v>0.03166042446941323</v>
+      </c>
+      <c r="Z101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7067,10 +8597,25 @@
         <v>0.2186212300175091</v>
       </c>
       <c r="U102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+        <v>125</v>
+      </c>
+      <c r="V102">
+        <v>0.03058309424805047</v>
+      </c>
+      <c r="W102">
+        <v>0.06076747939252433</v>
+      </c>
+      <c r="X102">
+        <v>0.218702118782818</v>
+      </c>
+      <c r="Y102">
+        <v>0.001185080190021983</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7126,10 +8671,25 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+        <v>126</v>
+      </c>
+      <c r="V103">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y103">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7191,10 +8751,25 @@
         <v>0.1301948051948052</v>
       </c>
       <c r="U104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+        <v>127</v>
+      </c>
+      <c r="V104">
+        <v>0.1288961038961039</v>
+      </c>
+      <c r="W104">
+        <v>0.001308967871893428</v>
+      </c>
+      <c r="X104">
+        <v>0.1301948051948052</v>
+      </c>
+      <c r="Y104">
+        <v>0.1275974025974026</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7256,10 +8831,25 @@
         <v>0.06457599917167116</v>
       </c>
       <c r="U105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+        <v>128</v>
+      </c>
+      <c r="V105">
+        <v>0.06335421412300683</v>
+      </c>
+      <c r="W105">
+        <v>0.0006271862077324249</v>
+      </c>
+      <c r="X105">
+        <v>0.06457599917167116</v>
+      </c>
+      <c r="Y105">
+        <v>0.06269155104576517</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7321,10 +8911,25 @@
         <v>0.032231861734918</v>
       </c>
       <c r="U106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+        <v>129</v>
+      </c>
+      <c r="V106">
+        <v>0.03159819788636949</v>
+      </c>
+      <c r="W106">
+        <v>0.0002956863786848709</v>
+      </c>
+      <c r="X106">
+        <v>0.03226158642963313</v>
+      </c>
+      <c r="Y106">
+        <v>0.03127947942976483</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7380,10 +8985,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+        <v>130</v>
+      </c>
+      <c r="V107">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y107">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7445,10 +9065,25 @@
         <v>0.2050078247261346</v>
       </c>
       <c r="U108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+        <v>131</v>
+      </c>
+      <c r="V108">
+        <v>0.1194574856546688</v>
+      </c>
+      <c r="W108">
+        <v>0.07629920505666404</v>
+      </c>
+      <c r="X108">
+        <v>0.2050078247261346</v>
+      </c>
+      <c r="Y108">
+        <v>0.05007824726134585</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7510,10 +9145,25 @@
         <v>0.2011813559192205</v>
       </c>
       <c r="U109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+        <v>132</v>
+      </c>
+      <c r="V109">
+        <v>0.05311728985572815</v>
+      </c>
+      <c r="W109">
+        <v>0.07450491767933781</v>
+      </c>
+      <c r="X109">
+        <v>0.2013685503243541</v>
+      </c>
+      <c r="Y109">
+        <v>0.003139702022654913</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7575,10 +9225,25 @@
         <v>0.2009391654111179</v>
       </c>
       <c r="U110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+        <v>133</v>
+      </c>
+      <c r="V110">
+        <v>0.02362203522764137</v>
+      </c>
+      <c r="W110">
+        <v>0.05618023580491569</v>
+      </c>
+      <c r="X110">
+        <v>0.2015560567362788</v>
+      </c>
+      <c r="Y110">
+        <v>3.88292707905415e-05</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7634,10 +9299,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+        <v>134</v>
+      </c>
+      <c r="V111">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y111">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7699,10 +9379,25 @@
         <v>0.2096249237182929</v>
       </c>
       <c r="U112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+        <v>135</v>
+      </c>
+      <c r="V112">
+        <v>0.04518522263368765</v>
+      </c>
+      <c r="W112">
+        <v>0.072860352237507</v>
+      </c>
+      <c r="X112">
+        <v>0.2097557731915866</v>
+      </c>
+      <c r="Y112">
+        <v>0.001286257350260592</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7758,10 +9453,25 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="U113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+        <v>136</v>
+      </c>
+      <c r="V113">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Y113">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7823,10 +9533,25 @@
         <v>0.1284019975031211</v>
       </c>
       <c r="U114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
+        <v>137</v>
+      </c>
+      <c r="V114">
+        <v>0.1274032459425718</v>
+      </c>
+      <c r="W114">
+        <v>0.0008398251837028898</v>
+      </c>
+      <c r="X114">
+        <v>0.1284019975031211</v>
+      </c>
+      <c r="Y114">
+        <v>0.1264044943820225</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7888,7 +9613,22 @@
         <v>0.06381396847865928</v>
       </c>
       <c r="U115" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="V115">
+        <v>0.06301013637340276</v>
+      </c>
+      <c r="W115">
+        <v>0.0003889756972110325</v>
+      </c>
+      <c r="X115">
+        <v>0.06381396847865928</v>
+      </c>
+      <c r="Y115">
+        <v>0.06257030371203599</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
